--- a/data/trans_camb/P18_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,88</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,88</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 0,0</t>
+          <t>-12,73; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,57</t>
+          <t>-12,73; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 3,81</t>
+          <t>-6,23; 13,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 4,57</t>
+          <t>-12,73; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 0,38</t>
+          <t>-11,19; 4,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -1,25</t>
+          <t>-13,31; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 1,34</t>
+          <t>-13,31; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 1,53</t>
+          <t>-13,31; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 0,6</t>
+          <t>-9,18; 1,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,45; -1,26</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,17; 3,93</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-10,45; -1,26</t>
         </is>
       </c>
     </row>
@@ -743,22 +797,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-37,95%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-45,74%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-27,25%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-78,35%</t>
+          <t>-52,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,17 +822,32 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-58,63%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-60,43%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-73,92%</t>
+          <t>-69,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-48,59%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -834,6 +903,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-12,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,21</t>
+          <t>-10,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,82</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-10,75</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,0</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-6,29</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-5,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 3,26</t>
+          <t>-47,62; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,86; 1,19</t>
+          <t>-44,95; 4,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 1,73</t>
+          <t>-44,85; 3,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,09; 3,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,86</t>
+          <t>0,0; 10,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 1,44</t>
+          <t>0,0; 10,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 2,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 1,38</t>
+          <t>-23,12; 0,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-20,5; 3,29</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-22,0; 2,79</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-21,73; 1,66</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-67,74%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-86,7%</t>
+          <t>-82,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-82,52%</t>
+          <t>-83,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-86,62%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-68,44%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-43,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-70,87%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-64,95%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-68,99%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-84,59%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1179,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,42</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 1,37</t>
+          <t>-12,76; 1,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 9,58</t>
+          <t>-3,3; 14,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 1,51</t>
+          <t>-12,04; 1,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,7</t>
+          <t>-10,37; 2,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 7,33</t>
+          <t>-0,77; 7,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 6,22</t>
+          <t>1,02; 10,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 1,33</t>
+          <t>-1,14; 5,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,8</t>
+          <t>-0,91; 9,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,48</t>
+          <t>-3,17; 3,71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 11,31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 2,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 5,01</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-59,84%</t>
+          <t>-67,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>112,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-58,05%</t>
+          <t>-66,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>-58,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>166,98%</t>
+          <t>237,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>114,06%</t>
+          <t>587,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-40,42%</t>
+          <t>186,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>65,5%</t>
+          <t>271,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-10,82%</t>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>215,44%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-11,57%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1412,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 96,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,69; 392,65</t>
+          <t>-65,03; 966,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 115,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,27 +1432,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 1188,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,16; 947,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-87,5; 87,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 316,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-74,73; 125,46</t>
+          <t>-83,28; 382,82</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 1155,4</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 301,05</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 682,82</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,46</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-8,74</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,55</t>
+          <t>-9,43</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>-6,84</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-4,66</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-5,71</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-5,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,51; -0,08</t>
+          <t>-13,81; -1,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 2,1</t>
+          <t>-10,13; 3,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 2,09</t>
+          <t>-9,87; 5,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,66; -2,31</t>
+          <t>-9,84; 5,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,6; -0,4</t>
+          <t>-16,29; -0,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -3,43</t>
+          <t>-15,13; 3,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,06; -3,26</t>
+          <t>-17,83; -0,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,5; -1,13</t>
+          <t>-17,95; -1,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -2,95</t>
+          <t>-12,76; -1,81</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-11,23; 0,58</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-11,14; 0,04</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-11,64; -0,24</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-62,68%</t>
+          <t>-83,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-46,26%</t>
+          <t>-47,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-42,62%</t>
+          <t>-28,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-63,07%</t>
+          <t>-25,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-52,83%</t>
+          <t>-51,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-69,28%</t>
+          <t>-39,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-62,87%</t>
+          <t>-61,82%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-50,75%</t>
+          <t>-66,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-60,88%</t>
+          <t>-61,84%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-42,09%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-51,64%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-53,82%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-91,64; 28,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-85,45; 76,14</t>
+          <t>-89,99; 233,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,36; 66,86</t>
+          <t>-83,53; 204,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-82,32; -17,86</t>
+          <t>-86,94; 219,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-79,04; -2,53</t>
+          <t>-81,84; 11,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,63; -29,41</t>
+          <t>-74,6; 41,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-82,44; -35,01</t>
+          <t>-89,37; 14,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-73,25; -10,06</t>
+          <t>-90,76; -6,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-80,74; -31,08</t>
+          <t>-85,02; -17,68</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-74,38; 12,69</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-78,28; 7,17</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-80,13; 0,67</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-10,16</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,23</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-13,58</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>-17,8</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-12,41</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-11,84</t>
+          <t>-14,35</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-7,21</t>
+          <t>-14,53</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-9,38</t>
+          <t>-12,19</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-5,16</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-9,06</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-10,5</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -3,06</t>
+          <t>-17,91; 1,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 0,71</t>
+          <t>-13,2; 9,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 1,56</t>
+          <t>-15,01; 5,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-21,53; -5,78</t>
+          <t>-18,72; 2,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 3,13</t>
+          <t>-30,62; -6,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,57; -3,49</t>
+          <t>-23,8; 6,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-17,9; -6,66</t>
+          <t>-27,76; -1,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,82; -1,33</t>
+          <t>-27,83; -0,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,07; -4,4</t>
+          <t>-20,4; -5,28</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-14,61; 3,45</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-18,04; -0,69</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-19,26; -2,82</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-70,05%</t>
+          <t>-58,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-49,83%</t>
+          <t>-17,12%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-44,8%</t>
+          <t>-37,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-75,2%</t>
+          <t>-55,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-39,99%</t>
+          <t>-83,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-68,74%</t>
+          <t>-42,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-72,87%</t>
+          <t>-67,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-44,4%</t>
+          <t>-68,4%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-57,74%</t>
+          <t>-72,16%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-30,51%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-53,61%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-62,15%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-90,98; -7,46</t>
+          <t>-90,77; 41,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-81,95; 18,0</t>
+          <t>-69,71; 123,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-75,21; 24,52</t>
+          <t>-78,27; 81,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-92,61; -39,2</t>
+          <t>-90,55; 58,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 27,37</t>
+          <t>-100,0; -25,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-89,61; -18,75</t>
+          <t>-80,87; 59,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-87,89; -47,73</t>
+          <t>-93,36; 19,25</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-68,3; -6,91</t>
+          <t>-92,91; 22,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-78,91; -29,31</t>
+          <t>-89,06; -35,25</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-67,86; 27,27</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-79,64; 1,52</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-85,5; -10,89</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-11,83</t>
+          <t>-12,32</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-11,45</t>
+          <t>-15,62</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,6</t>
+          <t>-7,97</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-13,17</t>
+          <t>-10,62</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-15,76</t>
+          <t>-13,91</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,58</t>
+          <t>-14,27</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-12,4</t>
+          <t>-17,98</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-13,55</t>
+          <t>-17,42</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-11,42</t>
+          <t>-12,87</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-14,66</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-13,24</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-14,05</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-21,64; -4,85</t>
+          <t>-26,78; -0,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-20,74; -3,9</t>
+          <t>-30,79; -7,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,82; -1,55</t>
+          <t>-23,67; 5,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 0,94</t>
+          <t>-24,74; 4,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-26,91; -5,57</t>
+          <t>-29,93; 0,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-24,11; 1,59</t>
+          <t>-30,06; 2,37</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-19,93; -4,24</t>
+          <t>-33,81; -3,78</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-21,71; -6,99</t>
+          <t>-32,11; -1,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-19,94; -2,3</t>
+          <t>-24,15; -2,15</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-25,1; -4,5</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-23,63; -2,59</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-25,52; -3,02</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-89,15%</t>
+          <t>-78,87%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-86,25%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-72,36%</t>
+          <t>-51,04%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-53,36%</t>
+          <t>-68,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-63,83%</t>
+          <t>-58,64%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-55,0%</t>
+          <t>-60,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-63,45%</t>
+          <t>-75,81%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-69,37%</t>
+          <t>-73,44%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-58,46%</t>
+          <t>-64,92%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-73,91%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-66,77%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-70,87%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -35,47</t>
+          <t>-100,0; 104,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -0,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-93,24; 32,31</t>
+          <t>-100,0; 114,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-81,19; 15,9</t>
+          <t>-100,0; 191,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-85,23; -28,59</t>
+          <t>-90,42; 27,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-82,97; 14,93</t>
+          <t>-91,78; 39,74</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-84,3; -19,97</t>
+          <t>-100,0; -2,91</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-86,29; -42,63</t>
+          <t>-100,0; 20,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-80,14; -2,61</t>
+          <t>-89,31; -6,07</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-93,31; -23,42</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-86,83; -5,24</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -6,08</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-7,56</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-6,23</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-5,31</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-5,86</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -3,65</t>
+          <t>-16,0; -3,82</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,39; -1,75</t>
+          <t>-13,19; -0,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -2,6</t>
+          <t>-13,57; -0,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,12; -3,21</t>
+          <t>-14,22; -2,17</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -1,39</t>
+          <t>-8,52; -1,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -3,01</t>
+          <t>-6,44; 0,85</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -4,05</t>
+          <t>-9,05; -2,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -2,45</t>
+          <t>-9,06; -1,9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -3,56</t>
+          <t>-9,53; -3,75</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; -0,98</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; -2,66</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; -3,14</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-72,59%</t>
+          <t>-79,53%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-53,62%</t>
+          <t>-48,04%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-61,15%</t>
+          <t>-52,02%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-58,57%</t>
+          <t>-64,8%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-41,11%</t>
+          <t>-54,91%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-56,03%</t>
+          <t>-31,52%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-64,77%</t>
+          <t>-61,31%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-46,7%</t>
+          <t>-60,51%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>-66,49%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-39,4%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-56,68%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-62,61%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-85,28; -48,15</t>
+          <t>-93,77; -52,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-75,33; -22,43</t>
+          <t>-78,92; 0,26</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-78,63; -32,41</t>
+          <t>-80,83; -9,01</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-74,58; -33,09</t>
+          <t>-86,86; -27,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-60,03; -13,77</t>
+          <t>-73,88; -20,97</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-73,19; -32,0</t>
+          <t>-57,16; 12,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-75,79; -48,85</t>
+          <t>-79,79; -31,27</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-62,7; -29,26</t>
+          <t>-81,42; -22,76</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-70,85; -38,49</t>
+          <t>-80,65; -46,09</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-61,08; -11,44</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-73,55; -29,14</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-78,33; -38,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
